--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Trimestral.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Serie</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2896,6 +2899,14 @@
         <v>0.84</v>
       </c>
     </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107">
+        <v>0.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Trimestral.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Trimestral.xlsx
@@ -2906,6 +2906,24 @@
       <c r="B107">
         <v>0.96</v>
       </c>
+      <c r="C107">
+        <v>3.01</v>
+      </c>
+      <c r="D107">
+        <v>4.06</v>
+      </c>
+      <c r="E107">
+        <v>4.78</v>
+      </c>
+      <c r="F107">
+        <v>-0.8</v>
+      </c>
+      <c r="G107">
+        <v>0.89</v>
+      </c>
+      <c r="H107">
+        <v>1.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
